--- a/利润表/300925.xlsx
+++ b/利润表/300925.xlsx
@@ -729,7 +729,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-09 00:00:00</t>
+          <t>2020-12-23 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">

--- a/利润表/300925.xlsx
+++ b/利润表/300925.xlsx
@@ -734,47 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>95954354.98</v>
+        <v>31850893.47</v>
       </c>
       <c r="P2" t="n">
-        <v>1306692344.3</v>
+        <v>431566376.52</v>
       </c>
       <c r="Q2" t="n">
-        <v>1192267902.14</v>
+        <v>395852398.32</v>
       </c>
       <c r="R2" t="n">
-        <v>67.71252985939999</v>
+        <v>40.7189985411</v>
       </c>
       <c r="S2" t="n">
-        <v>923514068.01</v>
+        <v>302993311.11</v>
       </c>
       <c r="T2" t="n">
-        <v>923514068.01</v>
+        <v>302993311.11</v>
       </c>
       <c r="U2" t="n">
-        <v>65.8996405087</v>
+        <v>52.0261735341</v>
       </c>
       <c r="V2" t="n">
-        <v>42292894.5</v>
+        <v>14109951.37</v>
       </c>
       <c r="W2" t="n">
-        <v>146828857.23</v>
+        <v>45323583.34</v>
       </c>
       <c r="X2" t="n">
-        <v>4364648.11</v>
+        <v>2160404.09</v>
       </c>
       <c r="Y2" t="n">
-        <v>104249946.72</v>
+        <v>35050988.76</v>
       </c>
       <c r="Z2" t="n">
-        <v>104288197.06</v>
+        <v>34957666.87</v>
       </c>
       <c r="AA2" t="n">
-        <v>8333842.08</v>
+        <v>3106773.4</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -782,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>7456169.6</v>
+        <v>1908096.62</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -793,19 +793,19 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="n">
-        <v>67.0126781418</v>
+        <v>47.1500655351</v>
       </c>
       <c r="AQ2" t="n">
-        <v>49.123078563349</v>
+        <v>277.075621552038</v>
       </c>
       <c r="AR2" t="n">
-        <v>47.246180196298</v>
+        <v>177.610700559113</v>
       </c>
       <c r="AS2" t="n">
-        <v>90093293.63</v>
+        <v>29450360.34</v>
       </c>
       <c r="AT2" t="n">
-        <v>54.269986497662</v>
+        <v>117.295573209713</v>
       </c>
     </row>
   </sheetData>
